--- a/data/trans_orig/INSTA_DEPOR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INSTA_DEPOR-Edad-trans_orig.xlsx
@@ -739,12 +739,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">

--- a/data/trans_orig/INSTA_DEPOR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INSTA_DEPOR-Edad-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Instalaciones deportivas en País Vasco</t>
+          <t>Instalaciones deportivas en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5339,7 +5339,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Instalaciones deportivas en C.Valenciana</t>
+          <t>Instalaciones deportivas en C.Valenciana (tasa de respuesta: 93,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/INSTA_DEPOR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INSTA_DEPOR-Edad-trans_orig.xlsx
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>644</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>153</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1147</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>644</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>149</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>1082</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,3%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2681</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4390</t>
+          <t>6216</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>2307</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2509</t>
+          <t>4847</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>4003</t>
+          <t>6113</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>2599</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>9122</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>6,71%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21998</t>
+          <t>23013</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18695</t>
+          <t>19387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25587</t>
+          <t>26443</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,05%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20579</t>
+          <t>20815</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16961</t>
+          <t>17411</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>23774</t>
+          <t>24721</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>42577</t>
+          <t>43827</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>37565</t>
+          <t>38511</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>47351</t>
+          <t>48561</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>37,05%</t>
+          <t>35,71%</t>
         </is>
       </c>
     </row>
@@ -1073,32 +1073,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39930</t>
+          <t>40836</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36237</t>
+          <t>37402</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43526</t>
+          <t>44617</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,8%</t>
+          <t>60,36%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,09%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,37%</t>
+          <t>65,95%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1108,32 +1108,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40874</t>
+          <t>44563</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37608</t>
+          <t>40580</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44663</t>
+          <t>48339</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>64,68%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>59,51%</t>
+          <t>59,39%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>70,68%</t>
+          <t>70,74%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1143,32 +1143,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>80804</t>
+          <t>85399</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>75892</t>
+          <t>80201</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>85554</t>
+          <t>90883</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>63,23%</t>
+          <t>62,8%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>59,38%</t>
+          <t>58,98%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>66,94%</t>
+          <t>66,83%</t>
         </is>
       </c>
     </row>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1256,17 +1256,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>763</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>179</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>2041</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>585</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>978</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>466</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1421</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2264</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>2043</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4174</t>
+          <t>6129</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>3115</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4677</t>
+          <t>5246</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>5022</t>
+          <t>6618</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3203</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>7376</t>
+          <t>9948</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,5%</t>
         </is>
       </c>
     </row>
@@ -1529,32 +1529,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25676</t>
+          <t>31598</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22112</t>
+          <t>27194</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29402</t>
+          <t>36402</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>39,86%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21450</t>
+          <t>28646</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17974</t>
+          <t>24110</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24864</t>
+          <t>33596</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1599,32 +1599,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>47126</t>
+          <t>60244</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>42128</t>
+          <t>53960</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>52194</t>
+          <t>66553</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>37,78%</t>
+          <t>36,81%</t>
         </is>
       </c>
     </row>
@@ -1642,32 +1642,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43586</t>
+          <t>55461</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39562</t>
+          <t>50252</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>47168</t>
+          <t>59941</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,63%</t>
+          <t>60,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,04%</t>
+          <t>55,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>65,62%</t>
+          <t>65,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1677,32 +1677,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>41781</t>
+          <t>57148</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>38296</t>
+          <t>52002</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>45326</t>
+          <t>61867</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>63,05%</t>
+          <t>63,86%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>57,79%</t>
+          <t>58,11%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>68,4%</t>
+          <t>69,13%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1712,32 +1712,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>85367</t>
+          <t>112609</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>80204</t>
+          <t>106214</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>90507</t>
+          <t>119617</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>61,79%</t>
+          <t>62,28%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>58,06%</t>
+          <t>58,74%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>65,51%</t>
+          <t>66,15%</t>
         </is>
       </c>
     </row>
@@ -1755,17 +1755,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1790,17 +1790,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1825,17 +1825,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>963</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2778</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>992</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>348</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>2360</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>3222</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3796</t>
+          <t>5359</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
@@ -1985,32 +1985,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4866</t>
+          <t>5974</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3132</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7474</t>
+          <t>8759</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2020,32 +2020,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>4995</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>3085</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5707</t>
+          <t>7421</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2055,32 +2055,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>10969</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>6061</t>
+          <t>8233</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>11654</t>
+          <t>14411</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -2098,32 +2098,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33504</t>
+          <t>44748</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29585</t>
+          <t>39684</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38056</t>
+          <t>50201</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>39,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2133,32 +2133,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>36001</t>
+          <t>44498</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>31353</t>
+          <t>38997</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>40201</t>
+          <t>49942</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>39,42%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2168,32 +2168,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>69505</t>
+          <t>89246</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>63859</t>
+          <t>82099</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>75326</t>
+          <t>96981</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>38,31%</t>
         </is>
       </c>
     </row>
@@ -2211,32 +2211,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>57787</t>
+          <t>73491</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>53222</t>
+          <t>68011</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>62051</t>
+          <t>79078</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,22%</t>
+          <t>58,12%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>54,54%</t>
+          <t>53,79%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>63,58%</t>
+          <t>62,54%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2246,32 +2246,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>59977</t>
+          <t>76208</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>55777</t>
+          <t>70599</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>64444</t>
+          <t>81829</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>59,9%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>55,7%</t>
+          <t>55,72%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>64,36%</t>
+          <t>64,59%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2281,32 +2281,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>117765</t>
+          <t>149699</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>111835</t>
+          <t>141763</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>123754</t>
+          <t>156729</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>59,56%</t>
+          <t>59,14%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>56,56%</t>
+          <t>56,0%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>62,59%</t>
+          <t>61,91%</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2324,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2359,17 +2359,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2441,32 +2441,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>385</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2961</t>
+          <t>2458</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,32 +2476,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>461</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2608</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,32 +2511,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2186</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1172</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4508</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,3%</t>
         </is>
       </c>
     </row>
@@ -2554,32 +2554,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>6577</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3973</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8388</t>
+          <t>9052</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,32 +2589,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6380</t>
+          <t>7435</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>4404</t>
+          <t>5315</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>8750</t>
+          <t>10289</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,32 +2624,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>12224</t>
+          <t>14012</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>9538</t>
+          <t>11014</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>15597</t>
+          <t>17753</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,95%</t>
         </is>
       </c>
     </row>
@@ -2667,32 +2667,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>47829</t>
+          <t>48484</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>43274</t>
+          <t>43367</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>53126</t>
+          <t>53294</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>32,73%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2702,32 +2702,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>47924</t>
+          <t>48777</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>43377</t>
+          <t>43724</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>53111</t>
+          <t>54222</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2737,32 +2737,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>95753</t>
+          <t>97262</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>88255</t>
+          <t>90352</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>102548</t>
+          <t>104702</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>33,99%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>35,11%</t>
         </is>
       </c>
     </row>
@@ -2780,32 +2780,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>86261</t>
+          <t>92032</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>81082</t>
+          <t>86805</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>91161</t>
+          <t>97546</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>61,07%</t>
+          <t>62,13%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>57,4%</t>
+          <t>58,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>64,54%</t>
+          <t>65,85%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2815,32 +2815,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>84993</t>
+          <t>92722</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>79698</t>
+          <t>87269</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>89911</t>
+          <t>98295</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>60,53%</t>
+          <t>61,78%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>56,76%</t>
+          <t>58,15%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>64,03%</t>
+          <t>65,5%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2850,32 +2850,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>171254</t>
+          <t>184755</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>164568</t>
+          <t>176206</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>179693</t>
+          <t>191656</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>60,8%</t>
+          <t>61,95%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>58,43%</t>
+          <t>59,09%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>63,8%</t>
+          <t>64,27%</t>
         </is>
       </c>
     </row>
@@ -2893,17 +2893,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2928,17 +2928,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2963,17 +2963,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3010,32 +3010,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>1474</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>685</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1727</t>
+          <t>2794</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,32 +3045,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>757</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>3086</t>
+          <t>2667</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,32 +3080,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2433</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4206</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -3123,32 +3123,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>5856</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7034</t>
+          <t>8368</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,32 +3158,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5332</t>
+          <t>7165</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>3750</t>
+          <t>5125</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>7611</t>
+          <t>9729</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,32 +3193,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>10142</t>
+          <t>13021</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>7716</t>
+          <t>10072</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>13168</t>
+          <t>16193</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>6,0%</t>
         </is>
       </c>
     </row>
@@ -3236,32 +3236,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>43664</t>
+          <t>40222</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>39055</t>
+          <t>35585</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>49109</t>
+          <t>44727</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>27,36%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>38,57%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3271,32 +3271,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>47428</t>
+          <t>42141</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>42439</t>
+          <t>37581</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>52838</t>
+          <t>46930</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3306,32 +3306,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>91092</t>
+          <t>82362</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>83717</t>
+          <t>76567</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>98281</t>
+          <t>89487</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>28,38%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>35,49%</t>
+          <t>33,16%</t>
         </is>
       </c>
     </row>
@@ -3349,32 +3349,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>77946</t>
+          <t>82517</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>72483</t>
+          <t>77497</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>82739</t>
+          <t>86792</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>61,22%</t>
+          <t>63,44%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>59,58%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>64,99%</t>
+          <t>66,73%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3384,32 +3384,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>95335</t>
+          <t>88948</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>89726</t>
+          <t>83952</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>100815</t>
+          <t>93558</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>63,71%</t>
+          <t>63,64%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>59,96%</t>
+          <t>60,07%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>66,94%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3419,32 +3419,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>173282</t>
+          <t>171464</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>165314</t>
+          <t>164235</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>181026</t>
+          <t>177570</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>62,57%</t>
+          <t>63,54%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>59,69%</t>
+          <t>60,86%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>65,36%</t>
+          <t>65,81%</t>
         </is>
       </c>
     </row>
@@ -3462,17 +3462,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3497,17 +3497,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3532,17 +3532,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3579,32 +3579,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>664</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>238</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2146</t>
+          <t>1574</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3614,32 +3614,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>508</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>2922</t>
+          <t>2262</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3649,32 +3649,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>2213</t>
+          <t>1839</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>953</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>3951</t>
+          <t>3201</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,54%</t>
         </is>
       </c>
     </row>
@@ -3692,32 +3692,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5096</t>
+          <t>4747</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3371</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>7511</t>
+          <t>6913</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3727,32 +3727,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>2798</t>
+          <t>3223</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>7024</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3762,32 +3762,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>9355</t>
+          <t>9706</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>6880</t>
+          <t>7329</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>12343</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,94%</t>
         </is>
       </c>
     </row>
@@ -3805,32 +3805,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>35200</t>
+          <t>27998</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>30680</t>
+          <t>24384</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>40181</t>
+          <t>31630</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3840,32 +3840,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>42558</t>
+          <t>37806</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>38152</t>
+          <t>33890</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>47776</t>
+          <t>41808</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3875,32 +3875,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>77758</t>
+          <t>65804</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>71046</t>
+          <t>60111</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>84361</t>
+          <t>70891</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>36,63%</t>
+          <t>34,14%</t>
         </is>
       </c>
     </row>
@@ -3918,32 +3918,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>71945</t>
+          <t>62243</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>67121</t>
+          <t>58394</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>76539</t>
+          <t>65777</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>63,63%</t>
+          <t>65,07%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>61,05%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>67,7%</t>
+          <t>68,77%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3953,32 +3953,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>69034</t>
+          <t>68030</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>64131</t>
+          <t>64103</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>73670</t>
+          <t>72263</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>58,88%</t>
+          <t>60,76%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>57,25%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>62,84%</t>
+          <t>64,54%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3988,32 +3988,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>140978</t>
+          <t>130274</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>134584</t>
+          <t>124140</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>147653</t>
+          <t>135268</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>61,21%</t>
+          <t>62,75%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>58,44%</t>
+          <t>59,79%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>64,11%</t>
+          <t>65,15%</t>
         </is>
       </c>
     </row>
@@ -4031,17 +4031,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4066,17 +4066,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4101,17 +4101,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4148,32 +4148,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>791</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>2999</t>
+          <t>2837</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4183,32 +4183,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2665</t>
+          <t>2248</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>1468</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4218,17 +4218,17 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>2704</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>6431</t>
+          <t>5480</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4238,12 +4238,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -4261,32 +4261,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>3602</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>2199</t>
+          <t>2258</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>5568</t>
+          <t>5233</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4296,32 +4296,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>4285</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>2854</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>6480</t>
+          <t>6713</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4331,32 +4331,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>7887</t>
+          <t>7896</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>5622</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>10516</t>
+          <t>10304</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,99%</t>
         </is>
       </c>
     </row>
@@ -4374,32 +4374,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>36267</t>
+          <t>28644</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>32159</t>
+          <t>25308</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>40813</t>
+          <t>32356</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>36,99%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>41,62%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4409,32 +4409,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>48348</t>
+          <t>45463</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>43682</t>
+          <t>41221</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>53299</t>
+          <t>49957</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>36,07%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4444,32 +4444,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>84616</t>
+          <t>74108</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>78291</t>
+          <t>68646</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>91014</t>
+          <t>80259</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>36,57%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>39,33%</t>
+          <t>38,88%</t>
         </is>
       </c>
     </row>
@@ -4487,32 +4487,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>56649</t>
+          <t>46812</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>52283</t>
+          <t>43310</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>60798</t>
+          <t>50737</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>57,77%</t>
+          <t>58,22%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>53,32%</t>
+          <t>53,87%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>62,0%</t>
+          <t>63,1%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4522,32 +4522,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>78042</t>
+          <t>73855</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>72747</t>
+          <t>69303</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>82968</t>
+          <t>78207</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>58,53%</t>
+          <t>58,6%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>54,56%</t>
+          <t>54,99%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>62,22%</t>
+          <t>62,05%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4557,32 +4557,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>134692</t>
+          <t>120668</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>127848</t>
+          <t>114118</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>141669</t>
+          <t>126099</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>58,21%</t>
+          <t>58,45%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>55,25%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>61,22%</t>
+          <t>61,08%</t>
         </is>
       </c>
     </row>
@@ -4600,17 +4600,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4635,17 +4635,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4670,17 +4670,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4717,32 +4717,32 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>6363</t>
+          <t>7694</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>5667</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8895</t>
+          <t>10445</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -4752,32 +4752,32 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>8073</t>
+          <t>8296</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>5819</t>
+          <t>6119</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>11027</t>
+          <t>11115</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -4787,32 +4787,32 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>14436</t>
+          <t>15990</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>11547</t>
+          <t>12927</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>17813</t>
+          <t>19502</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -4830,32 +4830,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>29164</t>
+          <t>33892</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>24579</t>
+          <t>28991</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>34398</t>
+          <t>40017</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4865,32 +4865,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>27829</t>
+          <t>34442</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>23591</t>
+          <t>29870</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>32648</t>
+          <t>40524</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4900,32 +4900,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>56993</t>
+          <t>68335</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>50267</t>
+          <t>61341</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>63325</t>
+          <t>75938</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,89%</t>
         </is>
       </c>
     </row>
@@ -4943,32 +4943,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>244139</t>
+          <t>244707</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>231837</t>
+          <t>232391</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>256019</t>
+          <t>256184</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>33,08%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4978,32 +4978,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>264289</t>
+          <t>268146</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>252562</t>
+          <t>256308</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>276213</t>
+          <t>280800</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5013,32 +5013,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>508428</t>
+          <t>512853</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>491345</t>
+          <t>496976</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>525201</t>
+          <t>530204</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>33,11%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>34,16%</t>
         </is>
       </c>
     </row>
@@ -5056,32 +5056,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>434106</t>
+          <t>453393</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>423143</t>
+          <t>442064</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>447535</t>
+          <t>466075</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>60,82%</t>
+          <t>61,3%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>59,28%</t>
+          <t>59,76%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>62,7%</t>
+          <t>63,01%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5091,32 +5091,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>470037</t>
+          <t>501475</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>457984</t>
+          <t>488502</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>481738</t>
+          <t>513332</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>61,03%</t>
+          <t>61,73%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>59,46%</t>
+          <t>60,13%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>62,54%</t>
+          <t>63,19%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5126,32 +5126,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>904143</t>
+          <t>954868</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>887250</t>
+          <t>936694</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>920280</t>
+          <t>970854</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>60,93%</t>
+          <t>61,52%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>59,79%</t>
+          <t>60,35%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>62,01%</t>
+          <t>62,55%</t>
         </is>
       </c>
     </row>
@@ -5169,17 +5169,17 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5204,17 +5204,17 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5239,17 +5239,17 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">

--- a/data/trans_orig/INSTA_DEPOR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INSTA_DEPOR-Edad-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Instalaciones deportivas en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Instalaciones deportivas en C.Valenciana (tasa de respuesta: 93,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5162</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2285</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10462</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>2913</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>772</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>6881</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>8076</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>13909</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>6,56%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3806</t>
+          <t>11640</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>7473</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6216</t>
+          <t>18159</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2307</t>
+          <t>6315</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4847</t>
+          <t>11356</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>6113</t>
+          <t>17955</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>12411</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>9122</t>
+          <t>25513</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>12,04%</t>
         </is>
       </c>
     </row>
@@ -955,107 +955,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23013</t>
+          <t>60951</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19387</t>
+          <t>52319</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26443</t>
+          <t>69351</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>57,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>65,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20815</t>
+          <t>61941</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17411</t>
+          <t>53406</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24721</t>
+          <t>69287</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>58,84%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>50,73%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>65,81%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>203</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>43827</t>
+          <t>122892</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>38511</t>
+          <t>112073</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>48561</t>
+          <t>134024</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>58,01%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>63,26%</t>
         </is>
       </c>
     </row>
@@ -1068,107 +1068,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40836</t>
+          <t>28828</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37402</t>
+          <t>21754</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44617</t>
+          <t>37041</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,36%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,95%</t>
+          <t>34,75%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44563</t>
+          <t>34108</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>40580</t>
+          <t>27391</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>48339</t>
+          <t>41934</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>32,4%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>59,39%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>70,74%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>108</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>85399</t>
+          <t>62936</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>80201</t>
+          <t>52738</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>90883</t>
+          <t>73832</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>62,8%</t>
+          <t>29,71%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>58,98%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>66,83%</t>
+          <t>34,85%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1181,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67654</t>
+          <t>106582</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67654</t>
+          <t>106582</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>67654</t>
+          <t>106582</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1216,22 +1216,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>177</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>68329</t>
+          <t>105277</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>68329</t>
+          <t>105277</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>68329</t>
+          <t>105277</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>354</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>135983</t>
+          <t>211859</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>135983</t>
+          <t>211859</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>135983</t>
+          <t>211859</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1298,107 +1298,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>7802</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2041</t>
+          <t>13372</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>5302</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2111</t>
+          <t>10242</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>13104</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>8521</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>20139</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -1411,107 +1411,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3503</t>
+          <t>13618</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2043</t>
+          <t>8444</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6129</t>
+          <t>22023</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3115</t>
+          <t>21093</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>13357</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5246</t>
+          <t>30144</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>44</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6618</t>
+          <t>34711</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4451</t>
+          <t>24719</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9948</t>
+          <t>47670</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>12,93%</t>
         </is>
       </c>
     </row>
@@ -1524,107 +1524,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31598</t>
+          <t>97958</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27194</t>
+          <t>85994</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36402</t>
+          <t>109205</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>56,39%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>49,5%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>62,86%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28646</t>
+          <t>98823</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24110</t>
+          <t>87325</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33596</t>
+          <t>109957</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>50,68%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>37,54%</t>
+          <t>56,39%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>317</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>60244</t>
+          <t>196781</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>53960</t>
+          <t>180208</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>66553</t>
+          <t>212565</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>53,37%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>57,65%</t>
         </is>
       </c>
     </row>
@@ -1637,107 +1637,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>55461</t>
+          <t>54338</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>50252</t>
+          <t>44570</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>59941</t>
+          <t>65349</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,73%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,03%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>65,63%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57148</t>
+          <t>69778</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>52002</t>
+          <t>60048</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61867</t>
+          <t>81969</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>63,86%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>69,13%</t>
+          <t>42,04%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>193</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>112609</t>
+          <t>124117</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>106214</t>
+          <t>109912</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>119617</t>
+          <t>139796</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>62,28%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>58,74%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>66,15%</t>
+          <t>37,91%</t>
         </is>
       </c>
     </row>
@@ -1750,22 +1750,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91325</t>
+          <t>173716</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>91325</t>
+          <t>173716</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91325</t>
+          <t>173716</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1785,22 +1785,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89493</t>
+          <t>194997</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>89493</t>
+          <t>194997</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89493</t>
+          <t>194997</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1820,22 +1820,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>574</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>180818</t>
+          <t>368713</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>180818</t>
+          <t>368713</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>180818</t>
+          <t>368713</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1867,72 +1867,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2230</t>
+          <t>2368</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>683</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4097</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>6095</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>3018</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2360</t>
+          <t>10736</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3222</t>
+          <t>8463</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>4670</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>5359</t>
+          <t>14694</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
@@ -1980,107 +1980,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>23582</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4076</t>
+          <t>16061</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8759</t>
+          <t>32800</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4995</t>
+          <t>14785</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3085</t>
+          <t>9198</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7421</t>
+          <t>22075</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>10969</t>
+          <t>38367</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>8233</t>
+          <t>29454</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>14411</t>
+          <t>49957</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -2093,107 +2093,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>44748</t>
+          <t>144616</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>39684</t>
+          <t>131433</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>50201</t>
+          <t>157642</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>58,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>53,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>64,07%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>223</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>44498</t>
+          <t>139247</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>38997</t>
+          <t>126818</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>49942</t>
+          <t>151225</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>35,12%</t>
+          <t>57,62%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>52,48%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>39,42%</t>
+          <t>62,58%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>449</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>89246</t>
+          <t>283862</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>82099</t>
+          <t>267001</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>96981</t>
+          <t>303042</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>58,21%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>54,75%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>62,14%</t>
         </is>
       </c>
     </row>
@@ -2206,107 +2206,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>73491</t>
+          <t>75468</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>68011</t>
+          <t>64007</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>79078</t>
+          <t>87383</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>58,12%</t>
+          <t>30,67%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>53,79%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>62,54%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>76208</t>
+          <t>81529</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>70599</t>
+          <t>71033</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>81829</t>
+          <t>93097</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>60,15%</t>
+          <t>33,74%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>55,72%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>64,59%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>262</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>149699</t>
+          <t>156996</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>141763</t>
+          <t>140345</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>156729</t>
+          <t>174655</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>56,0%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>61,91%</t>
+          <t>35,81%</t>
         </is>
       </c>
     </row>
@@ -2319,22 +2319,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126443</t>
+          <t>246034</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126443</t>
+          <t>246034</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126443</t>
+          <t>246034</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2354,22 +2354,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>396</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>126694</t>
+          <t>241655</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>126694</t>
+          <t>241655</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>126694</t>
+          <t>241655</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2389,22 +2389,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>785</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>253136</t>
+          <t>487688</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>253136</t>
+          <t>487688</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>253136</t>
+          <t>487688</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2436,107 +2436,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>5727</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>16114</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>10243</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>5862</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2346</t>
+          <t>16102</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>20624</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>14413</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>3880</t>
+          <t>29393</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>5,15%</t>
         </is>
       </c>
     </row>
@@ -2549,107 +2549,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6577</t>
+          <t>28789</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>21497</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9052</t>
+          <t>39094</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7435</t>
+          <t>19533</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5315</t>
+          <t>12716</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>10289</t>
+          <t>29011</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>14012</t>
+          <t>48321</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>11014</t>
+          <t>38041</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>17753</t>
+          <t>61296</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>10,74%</t>
         </is>
       </c>
     </row>
@@ -2662,107 +2662,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>48484</t>
+          <t>160312</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>43367</t>
+          <t>146726</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>53294</t>
+          <t>173533</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>54,26%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>49,66%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>58,73%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>244</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>48777</t>
+          <t>147789</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>43724</t>
+          <t>133933</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>54222</t>
+          <t>161717</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>53,7%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>48,67%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>58,77%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>504</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>97262</t>
+          <t>308101</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>90352</t>
+          <t>288607</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>104702</t>
+          <t>326706</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>53,99%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>50,57%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>57,25%</t>
         </is>
       </c>
     </row>
@@ -2775,107 +2775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>92032</t>
+          <t>95985</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>86805</t>
+          <t>84262</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>97546</t>
+          <t>109302</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>62,13%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>58,6%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>65,85%</t>
+          <t>36,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>162</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>92722</t>
+          <t>97627</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>87269</t>
+          <t>84635</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>98295</t>
+          <t>109913</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>61,78%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>58,15%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>65,5%</t>
+          <t>39,94%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>325</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>184755</t>
+          <t>193612</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>176206</t>
+          <t>176095</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>191656</t>
+          <t>213702</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>61,95%</t>
+          <t>33,93%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>59,09%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>64,27%</t>
+          <t>37,45%</t>
         </is>
       </c>
     </row>
@@ -2888,22 +2888,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>148140</t>
+          <t>295467</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>148140</t>
+          <t>295467</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>148140</t>
+          <t>295467</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2923,22 +2923,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>450</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>150074</t>
+          <t>275192</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>150074</t>
+          <t>275192</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>150074</t>
+          <t>275192</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2958,22 +2958,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>932</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>298215</t>
+          <t>570659</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>298215</t>
+          <t>570659</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>298215</t>
+          <t>570659</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3005,107 +3005,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>10696</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>5878</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2794</t>
+          <t>17637</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>9649</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5097</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>15595</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
           <t>2,15%</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1513</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>757</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>2667</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="O24" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2987</t>
+          <t>20345</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>12936</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>27636</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>5,87%</t>
         </is>
       </c>
     </row>
@@ -3118,107 +3118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5856</t>
+          <t>21290</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3919</t>
+          <t>15207</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8368</t>
+          <t>28673</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7165</t>
+          <t>17159</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>5125</t>
+          <t>11289</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>9729</t>
+          <t>25745</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>13021</t>
+          <t>38449</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>10072</t>
+          <t>30175</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>16193</t>
+          <t>50841</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>10,81%</t>
         </is>
       </c>
     </row>
@@ -3231,107 +3231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>40222</t>
+          <t>141268</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>35585</t>
+          <t>127997</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>44727</t>
+          <t>154361</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>60,49%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>54,81%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>66,1%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>216</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>42141</t>
+          <t>131934</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>37581</t>
+          <t>119360</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>46930</t>
+          <t>144337</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>55,68%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>50,37%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>60,92%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>438</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>82362</t>
+          <t>273202</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>76567</t>
+          <t>255941</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>89487</t>
+          <t>290423</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>58,07%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>54,4%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>61,73%</t>
         </is>
       </c>
     </row>
@@ -3344,107 +3344,107 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>82517</t>
+          <t>60275</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>77497</t>
+          <t>48979</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>86792</t>
+          <t>73135</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>63,44%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>59,58%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>66,73%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>88948</t>
+          <t>78206</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>83952</t>
+          <t>66971</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>93558</t>
+          <t>89747</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>63,64%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>60,07%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>66,94%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>228</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>171464</t>
+          <t>138480</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>164235</t>
+          <t>121883</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>177570</t>
+          <t>155240</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>63,54%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>60,86%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>65,81%</t>
+          <t>33,0%</t>
         </is>
       </c>
     </row>
@@ -3457,22 +3457,22 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>130069</t>
+          <t>233528</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>130069</t>
+          <t>233528</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>130069</t>
+          <t>233528</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3492,22 +3492,22 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>392</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>139766</t>
+          <t>236948</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>139766</t>
+          <t>236948</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>139766</t>
+          <t>236948</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3527,22 +3527,22 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>759</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>269835</t>
+          <t>470476</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>269835</t>
+          <t>470476</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>269835</t>
+          <t>470476</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3574,107 +3574,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>3316</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>1752</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>5658</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>4145</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>2262</t>
+          <t>7357</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>7461</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>953</t>
+          <t>4911</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>3201</t>
+          <t>11090</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -3687,107 +3687,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>4747</t>
+          <t>20185</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3313</t>
+          <t>15421</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>6913</t>
+          <t>25755</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>18875</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>3223</t>
+          <t>14026</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>7024</t>
+          <t>25234</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>106</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>9706</t>
+          <t>39060</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>7329</t>
+          <t>32483</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>12343</t>
+          <t>47017</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>13,17%</t>
         </is>
       </c>
     </row>
@@ -3800,107 +3800,107 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>27998</t>
+          <t>101693</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>24384</t>
+          <t>93732</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>31630</t>
+          <t>109625</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>56,03%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>51,64%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>60,4%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>258</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>37806</t>
+          <t>101542</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>33890</t>
+          <t>92567</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>41808</t>
+          <t>109953</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>57,82%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>52,71%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>62,61%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>570</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>65804</t>
+          <t>203235</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>60111</t>
+          <t>191852</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>70891</t>
+          <t>213858</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>56,91%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>53,72%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>59,88%</t>
         </is>
       </c>
     </row>
@@ -3913,107 +3913,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>62243</t>
+          <t>56311</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>58394</t>
+          <t>48815</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>65777</t>
+          <t>63746</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>65,07%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>61,05%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>68,77%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>68030</t>
+          <t>51057</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>64103</t>
+          <t>44726</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>72263</t>
+          <t>60172</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>60,76%</t>
+          <t>29,07%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>57,25%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>64,54%</t>
+          <t>34,26%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>315</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>130274</t>
+          <t>107368</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>124140</t>
+          <t>96954</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>135268</t>
+          <t>117944</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>62,75%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>59,79%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>65,15%</t>
+          <t>33,03%</t>
         </is>
       </c>
     </row>
@@ -4026,22 +4026,22 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>95652</t>
+          <t>181505</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>95652</t>
+          <t>181505</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>95652</t>
+          <t>181505</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4061,22 +4061,22 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>453</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>111970</t>
+          <t>175619</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>111970</t>
+          <t>175619</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>111970</t>
+          <t>175619</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4096,22 +4096,22 @@
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>207623</t>
+          <t>357124</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>207623</t>
+          <t>357124</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>207623</t>
+          <t>357124</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4143,107 +4143,107 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>515</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>2837</t>
+          <t>3198</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2248</t>
+          <t>7077</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>11179</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>3764</t>
+          <t>8598</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>5480</t>
+          <t>13058</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -4256,107 +4256,107 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>15163</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>2258</t>
+          <t>11241</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>5233</t>
+          <t>19944</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>4467</t>
+          <t>18002</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>13253</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>6713</t>
+          <t>24093</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>92</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>7896</t>
+          <t>33166</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>26784</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>10304</t>
+          <t>39685</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>11,85%</t>
         </is>
       </c>
     </row>
@@ -4369,107 +4369,107 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>28644</t>
+          <t>91725</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>25308</t>
+          <t>85088</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>32356</t>
+          <t>98004</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>62,67%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>58,14%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>40,24%</t>
+          <t>66,96%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>45463</t>
+          <t>116440</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>41221</t>
+          <t>107627</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>49957</t>
+          <t>125054</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>61,73%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>66,29%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>592</t>
         </is>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>74108</t>
+          <t>208165</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>68646</t>
+          <t>197298</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>80259</t>
+          <t>218547</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>62,14%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>58,9%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>65,24%</t>
         </is>
       </c>
     </row>
@@ -4482,107 +4482,107 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>46812</t>
+          <t>37949</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>43310</t>
+          <t>32753</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>50737</t>
+          <t>44467</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>58,22%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>53,87%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>63,1%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>73855</t>
+          <t>47121</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>69303</t>
+          <t>39137</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>78207</t>
+          <t>54746</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>58,6%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>54,99%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>62,05%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>247</t>
         </is>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>120668</t>
+          <t>85070</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>114118</t>
+          <t>75461</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>126099</t>
+          <t>95242</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>58,45%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>61,08%</t>
+          <t>28,43%</t>
         </is>
       </c>
     </row>
@@ -4595,22 +4595,22 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>480</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>80403</t>
+          <t>146358</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>80403</t>
+          <t>146358</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>80403</t>
+          <t>146358</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4630,22 +4630,22 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>474</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>126033</t>
+          <t>188640</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>126033</t>
+          <t>188640</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>126033</t>
+          <t>188640</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>954</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>206436</t>
+          <t>334999</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>206436</t>
+          <t>334999</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>206436</t>
+          <t>334999</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4712,107 +4712,107 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>7694</t>
+          <t>41247</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>5667</t>
+          <t>32548</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>10445</t>
+          <t>53472</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>8296</t>
+          <t>45424</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>6119</t>
+          <t>35697</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>11115</t>
+          <t>56339</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>152</t>
         </is>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>15990</t>
+          <t>86671</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>12927</t>
+          <t>73846</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>19502</t>
+          <t>102514</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -4825,107 +4825,107 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>33892</t>
+          <t>134266</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>28991</t>
+          <t>118465</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>40017</t>
+          <t>151212</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>202</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>34442</t>
+          <t>115762</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>29870</t>
+          <t>97468</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>40524</t>
+          <t>133327</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>470</t>
         </is>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>68335</t>
+          <t>250028</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>61341</t>
+          <t>225895</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>75938</t>
+          <t>275805</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>9,84%</t>
         </is>
       </c>
     </row>
@@ -4938,107 +4938,107 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>1363</t>
+          <t>1579</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>244707</t>
+          <t>798523</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>232391</t>
+          <t>771558</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>256184</t>
+          <t>826216</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>57,73%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>55,78%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>59,73%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>1502</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>268146</t>
+          <t>797716</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>256308</t>
+          <t>768403</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>280800</t>
+          <t>828066</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>56,24%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>58,38%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>3073</t>
         </is>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>512853</t>
+          <t>1596239</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>496976</t>
+          <t>1555445</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>530204</t>
+          <t>1637954</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>56,98%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>55,52%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>58,47%</t>
         </is>
       </c>
     </row>
@@ -5051,107 +5051,107 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2521</t>
+          <t>817</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>453393</t>
+          <t>409153</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>442064</t>
+          <t>384677</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>466075</t>
+          <t>435537</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>61,3%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>59,76%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>2774</t>
+          <t>861</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>501475</t>
+          <t>459426</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>488502</t>
+          <t>433501</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>513332</t>
+          <t>486577</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>61,73%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>60,13%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>63,19%</t>
+          <t>34,31%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>5295</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>954868</t>
+          <t>868579</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>936694</t>
+          <t>829884</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>970854</t>
+          <t>906489</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>61,52%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>60,35%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>62,55%</t>
+          <t>32,36%</t>
         </is>
       </c>
     </row>
@@ -5164,22 +5164,22 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>4098</t>
+          <t>2734</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>739687</t>
+          <t>1383190</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>739687</t>
+          <t>1383190</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>739687</t>
+          <t>1383190</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5199,22 +5199,22 @@
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>2639</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>812359</t>
+          <t>1418328</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>812359</t>
+          <t>1418328</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>812359</t>
+          <t>1418328</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5234,22 +5234,22 @@
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>8600</t>
+          <t>5373</t>
         </is>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>1552046</t>
+          <t>2801518</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>1552046</t>
+          <t>2801518</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>1552046</t>
+          <t>2801518</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5339,7 +5339,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Instalaciones deportivas en C.Valenciana (tasa de respuesta: 93,38%)</t>
+          <t>Instalaciones deportivas en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5524,107 +5524,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5162</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2285</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10462</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2913</t>
+          <t>644</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>153</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6881</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8076</t>
+          <t>644</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>4481</t>
+          <t>149</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>13909</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>1,3%</t>
         </is>
       </c>
     </row>
@@ -5637,107 +5637,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11640</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7473</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18159</t>
+          <t>6216</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6315</t>
+          <t>2307</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3276</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11356</t>
+          <t>4847</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>17955</t>
+          <t>6113</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>12411</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>25513</t>
+          <t>9122</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>6,71%</t>
         </is>
       </c>
     </row>
@@ -5750,107 +5750,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>60951</t>
+          <t>23013</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52319</t>
+          <t>19387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>69351</t>
+          <t>26443</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,19%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,09%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>65,07%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61941</t>
+          <t>20815</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>53406</t>
+          <t>17411</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>69287</t>
+          <t>24721</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>58,84%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>50,73%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>65,81%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>243</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>122892</t>
+          <t>43827</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>112073</t>
+          <t>38511</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>134024</t>
+          <t>48561</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>58,01%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>52,9%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>63,26%</t>
+          <t>35,71%</t>
         </is>
       </c>
     </row>
@@ -5863,107 +5863,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28828</t>
+          <t>40836</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21754</t>
+          <t>37402</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37041</t>
+          <t>44617</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>60,36%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>65,95%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>222</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34108</t>
+          <t>44563</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27391</t>
+          <t>40580</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>41934</t>
+          <t>48339</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>59,39%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>70,74%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>458</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>62936</t>
+          <t>85399</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>52738</t>
+          <t>80201</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>73832</t>
+          <t>90883</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>29,71%</t>
+          <t>62,8%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>58,98%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>66,83%</t>
         </is>
       </c>
     </row>
@@ -5976,22 +5976,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>106582</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>106582</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>106582</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6011,22 +6011,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>350</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>105277</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>105277</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>105277</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6046,22 +6046,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>211859</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>211859</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>211859</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6093,107 +6093,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7802</t>
+          <t>763</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3906</t>
+          <t>179</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13372</t>
+          <t>2041</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5302</t>
+          <t>585</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2543</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10242</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>13104</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>8521</t>
+          <t>466</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>20139</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -6206,107 +6206,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13618</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8444</t>
+          <t>2043</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22023</t>
+          <t>6129</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21093</t>
+          <t>3115</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13357</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30144</t>
+          <t>5246</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>34711</t>
+          <t>6618</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>24719</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>47670</t>
+          <t>9948</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>5,5%</t>
         </is>
       </c>
     </row>
@@ -6319,107 +6319,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>97958</t>
+          <t>31598</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85994</t>
+          <t>27194</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>109205</t>
+          <t>36402</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,5%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,86%</t>
+          <t>39,86%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>98823</t>
+          <t>28646</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>87325</t>
+          <t>24110</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>109957</t>
+          <t>33596</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,68%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>260</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>196781</t>
+          <t>60244</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>180208</t>
+          <t>53960</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>212565</t>
+          <t>66553</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>53,37%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>48,87%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>36,81%</t>
         </is>
       </c>
     </row>
@@ -6432,107 +6432,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>54338</t>
+          <t>55461</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44570</t>
+          <t>50252</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>65349</t>
+          <t>59941</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>60,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>55,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>65,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>242</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>69778</t>
+          <t>57148</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>60048</t>
+          <t>52002</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>81969</t>
+          <t>61867</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>63,86%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>58,11%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>69,13%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>482</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>124117</t>
+          <t>112609</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>109912</t>
+          <t>106214</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>139796</t>
+          <t>119617</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>62,28%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>58,74%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>66,15%</t>
         </is>
       </c>
     </row>
@@ -6545,22 +6545,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>173716</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>173716</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>173716</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6580,22 +6580,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>374</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>194997</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>194997</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>194997</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6615,22 +6615,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>774</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>368713</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>368713</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>368713</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6662,72 +6662,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2368</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>963</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5789</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6095</t>
+          <t>992</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3018</t>
+          <t>348</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>10736</t>
+          <t>2360</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6737,32 +6737,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>8463</t>
+          <t>3222</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4670</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>14694</t>
+          <t>5359</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
@@ -6775,107 +6775,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23582</t>
+          <t>5974</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16061</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32800</t>
+          <t>8759</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14785</t>
+          <t>4995</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9198</t>
+          <t>3085</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22075</t>
+          <t>7421</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>48</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>38367</t>
+          <t>10969</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>29454</t>
+          <t>8233</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>49957</t>
+          <t>14411</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -6888,107 +6888,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>144616</t>
+          <t>44748</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>131433</t>
+          <t>39684</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>157642</t>
+          <t>50201</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>58,78%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>53,42%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>64,07%</t>
+          <t>39,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>139247</t>
+          <t>44498</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>126818</t>
+          <t>38997</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>151225</t>
+          <t>49942</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>57,62%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>52,48%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>62,58%</t>
+          <t>39,42%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>412</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>283862</t>
+          <t>89246</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>267001</t>
+          <t>82099</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>303042</t>
+          <t>96981</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>58,21%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>54,75%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>62,14%</t>
+          <t>38,31%</t>
         </is>
       </c>
     </row>
@@ -7001,107 +7001,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75468</t>
+          <t>73491</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>64007</t>
+          <t>68011</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>87383</t>
+          <t>79078</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>58,12%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>53,79%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>62,54%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>347</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>81529</t>
+          <t>76208</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>71033</t>
+          <t>70599</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>93097</t>
+          <t>81829</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>55,72%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>38,52%</t>
+          <t>64,59%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>683</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>156996</t>
+          <t>149699</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>140345</t>
+          <t>141763</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>174655</t>
+          <t>156729</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>59,14%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>56,0%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>61,91%</t>
         </is>
       </c>
     </row>
@@ -7114,22 +7114,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>571</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>246034</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>246034</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>246034</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7149,22 +7149,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>241655</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>241655</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>241655</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7184,22 +7184,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>487688</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>487688</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>487688</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7231,107 +7231,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10382</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5727</t>
+          <t>385</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16114</t>
+          <t>2458</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10243</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5862</t>
+          <t>461</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>16102</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>20624</t>
+          <t>2186</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>14413</t>
+          <t>1172</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>29393</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>1,3%</t>
         </is>
       </c>
     </row>
@@ -7344,107 +7344,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>28789</t>
+          <t>6577</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>21497</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>39094</t>
+          <t>9052</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19533</t>
+          <t>7435</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>12716</t>
+          <t>5315</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>29011</t>
+          <t>10289</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>48321</t>
+          <t>14012</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>38041</t>
+          <t>11014</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>61296</t>
+          <t>17753</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>5,95%</t>
         </is>
       </c>
     </row>
@@ -7457,107 +7457,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>160312</t>
+          <t>48484</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>146726</t>
+          <t>43367</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>173533</t>
+          <t>53294</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>54,26%</t>
+          <t>32,73%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49,66%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>58,73%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>266</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>147789</t>
+          <t>48777</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>133933</t>
+          <t>43724</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>161717</t>
+          <t>54222</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>53,7%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>58,77%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>532</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>308101</t>
+          <t>97262</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>288607</t>
+          <t>90352</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>326706</t>
+          <t>104702</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>53,99%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>50,57%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>57,25%</t>
+          <t>35,11%</t>
         </is>
       </c>
     </row>
@@ -7570,107 +7570,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>502</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>95985</t>
+          <t>92032</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>84262</t>
+          <t>86805</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>109302</t>
+          <t>97546</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>62,13%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>58,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>36,99%</t>
+          <t>65,85%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>505</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>97627</t>
+          <t>92722</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>84635</t>
+          <t>87269</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>109913</t>
+          <t>98295</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>35,48%</t>
+          <t>61,78%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>58,15%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>65,5%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>193612</t>
+          <t>184755</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>176095</t>
+          <t>176206</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>213702</t>
+          <t>191656</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>61,95%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>59,09%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>37,45%</t>
+          <t>64,27%</t>
         </is>
       </c>
     </row>
@@ -7683,22 +7683,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>807</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>295467</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>295467</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>295467</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -7718,22 +7718,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>816</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>275192</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>275192</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>275192</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -7753,22 +7753,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>570659</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>570659</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>570659</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -7800,107 +7800,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>10696</t>
+          <t>1474</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5878</t>
+          <t>685</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>17637</t>
+          <t>2794</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>9649</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>5097</t>
+          <t>757</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>15595</t>
+          <t>2667</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>20345</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>12936</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>27636</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -7913,107 +7913,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>21290</t>
+          <t>5856</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>15207</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>28673</t>
+          <t>8368</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>17159</t>
+          <t>7165</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>11289</t>
+          <t>5125</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>25745</t>
+          <t>9729</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>38449</t>
+          <t>13021</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>30175</t>
+          <t>10072</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>50841</t>
+          <t>16193</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>6,0%</t>
         </is>
       </c>
     </row>
@@ -8026,107 +8026,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>141268</t>
+          <t>40222</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>127997</t>
+          <t>35585</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>154361</t>
+          <t>44727</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>60,49%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>54,81%</t>
+          <t>27,36%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>66,1%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>268</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>131934</t>
+          <t>42141</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>119360</t>
+          <t>37581</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>144337</t>
+          <t>46930</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>55,68%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>50,37%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>60,92%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>504</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>273202</t>
+          <t>82362</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>255941</t>
+          <t>76567</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>290423</t>
+          <t>89487</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>58,07%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>54,4%</t>
+          <t>28,38%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>61,73%</t>
+          <t>33,16%</t>
         </is>
       </c>
     </row>
@@ -8139,107 +8139,107 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>460</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>60275</t>
+          <t>82517</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>48979</t>
+          <t>77497</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>73135</t>
+          <t>86792</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>63,44%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>59,58%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>66,73%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>546</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>78206</t>
+          <t>88948</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>66971</t>
+          <t>83952</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>89747</t>
+          <t>93558</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>63,64%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>60,07%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>66,94%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>138480</t>
+          <t>171464</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>121883</t>
+          <t>164235</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>155240</t>
+          <t>177570</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>63,54%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>60,86%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>65,81%</t>
         </is>
       </c>
     </row>
@@ -8252,22 +8252,22 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>735</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>233528</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>233528</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>233528</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -8287,22 +8287,22 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>863</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>236948</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>236948</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>236948</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -8322,22 +8322,22 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>470476</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>470476</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>470476</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -8369,107 +8369,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1574</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1175</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2262</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>3316</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>1752</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>5658</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>3,12%</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>4145</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>7357</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>2,36%</t>
-        </is>
-      </c>
-      <c r="O29" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t>4,19%</t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>7461</t>
+          <t>1839</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>4911</t>
+          <t>953</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>11090</t>
+          <t>3201</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>1,54%</t>
         </is>
       </c>
     </row>
@@ -8482,107 +8482,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>20185</t>
+          <t>4747</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>15421</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>25755</t>
+          <t>6913</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>18875</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>14026</t>
+          <t>3223</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>25234</t>
+          <t>7024</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>39060</t>
+          <t>9706</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>32483</t>
+          <t>7329</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>47017</t>
+          <t>12343</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>5,94%</t>
         </is>
       </c>
     </row>
@@ -8595,107 +8595,107 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>101693</t>
+          <t>27998</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>93732</t>
+          <t>24384</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>109625</t>
+          <t>31630</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>56,03%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>51,64%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>60,4%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>241</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>101542</t>
+          <t>37806</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>92567</t>
+          <t>33890</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>109953</t>
+          <t>41808</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>52,71%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>62,61%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>437</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>203235</t>
+          <t>65804</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>191852</t>
+          <t>60111</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>213858</t>
+          <t>70891</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>56,91%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>53,72%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>59,88%</t>
+          <t>34,14%</t>
         </is>
       </c>
     </row>
@@ -8708,107 +8708,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>421</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>56311</t>
+          <t>62243</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>48815</t>
+          <t>58394</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>63746</t>
+          <t>65777</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>65,07%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>61,05%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>35,12%</t>
+          <t>68,77%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>429</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>51057</t>
+          <t>68030</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>44726</t>
+          <t>64103</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>60172</t>
+          <t>72263</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>60,76%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>57,25%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>64,54%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>850</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>107368</t>
+          <t>130274</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>96954</t>
+          <t>124140</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>117944</t>
+          <t>135268</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>62,75%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>59,79%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>65,15%</t>
         </is>
       </c>
     </row>
@@ -8821,22 +8821,22 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>650</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>181505</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>181505</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>181505</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -8856,22 +8856,22 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>706</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>175619</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>175619</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>175619</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -8891,22 +8891,22 @@
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>357124</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>357124</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>357124</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -8938,107 +8938,107 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>791</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>3198</t>
+          <t>2837</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>7077</t>
+          <t>2248</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>4233</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>11179</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>8598</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>13058</t>
+          <t>5480</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -9051,107 +9051,107 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>15163</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>11241</t>
+          <t>2258</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>19944</t>
+          <t>5233</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>18002</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>13253</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>24093</t>
+          <t>6713</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>49</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>33166</t>
+          <t>7896</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>26784</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>39685</t>
+          <t>10304</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>4,99%</t>
         </is>
       </c>
     </row>
@@ -9164,107 +9164,107 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>91725</t>
+          <t>28644</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>85088</t>
+          <t>25308</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>98004</t>
+          <t>32356</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>62,67%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>58,14%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>66,96%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>281</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>116440</t>
+          <t>45463</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>107627</t>
+          <t>41221</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>125054</t>
+          <t>49957</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>61,73%</t>
+          <t>36,07%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>57,05%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>66,29%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>477</t>
         </is>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>208165</t>
+          <t>74108</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>197298</t>
+          <t>68646</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>218547</t>
+          <t>80259</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>62,14%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>58,9%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>65,24%</t>
+          <t>38,88%</t>
         </is>
       </c>
     </row>
@@ -9277,107 +9277,107 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>326</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>37949</t>
+          <t>46812</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>32753</t>
+          <t>43310</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>44467</t>
+          <t>50737</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>58,22%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>53,87%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>63,1%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>483</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>47121</t>
+          <t>73855</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>39137</t>
+          <t>69303</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>54746</t>
+          <t>78207</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>58,6%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>54,99%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>62,05%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>809</t>
         </is>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>85070</t>
+          <t>120668</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>75461</t>
+          <t>114118</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>95242</t>
+          <t>126099</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>58,45%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>61,08%</t>
         </is>
       </c>
     </row>
@@ -9390,22 +9390,22 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>146358</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>146358</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>146358</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -9425,22 +9425,22 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>807</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>188640</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>188640</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>188640</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -9460,22 +9460,22 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>334999</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>334999</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>334999</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -9507,107 +9507,107 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>41247</t>
+          <t>7694</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>32548</t>
+          <t>5667</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>53472</t>
+          <t>10445</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>45424</t>
+          <t>8296</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>35697</t>
+          <t>6119</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>56339</t>
+          <t>11115</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>93</t>
         </is>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>86671</t>
+          <t>15990</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>73846</t>
+          <t>12927</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>102514</t>
+          <t>19502</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -9620,107 +9620,107 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>134266</t>
+          <t>33892</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>118465</t>
+          <t>28991</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>151212</t>
+          <t>40017</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>176</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>115762</t>
+          <t>34442</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>97468</t>
+          <t>29870</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>133327</t>
+          <t>40524</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>347</t>
         </is>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>250028</t>
+          <t>68335</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>225895</t>
+          <t>61341</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>275805</t>
+          <t>75938</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>4,89%</t>
         </is>
       </c>
     </row>
@@ -9733,107 +9733,107 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>1579</t>
+          <t>1363</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>798523</t>
+          <t>244707</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>771558</t>
+          <t>232391</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>826216</t>
+          <t>256184</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>57,73%</t>
+          <t>33,08%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>55,78%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>59,73%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1502</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>797716</t>
+          <t>268146</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>768403</t>
+          <t>256308</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>828066</t>
+          <t>280800</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>56,24%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>54,18%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>58,38%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>3073</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>1596239</t>
+          <t>512853</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>1555445</t>
+          <t>496976</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>1637954</t>
+          <t>530204</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>56,98%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>55,52%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>58,47%</t>
+          <t>34,16%</t>
         </is>
       </c>
     </row>
@@ -9846,107 +9846,107 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>2521</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>409153</t>
+          <t>453393</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>384677</t>
+          <t>442064</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>435537</t>
+          <t>466075</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>61,3%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>59,76%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>63,01%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>2774</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>459426</t>
+          <t>501475</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>433501</t>
+          <t>488502</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>486577</t>
+          <t>513332</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>61,73%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>60,13%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>63,19%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>5295</t>
         </is>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>868579</t>
+          <t>954868</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>829884</t>
+          <t>936694</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>906489</t>
+          <t>970854</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>61,52%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>60,35%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>62,55%</t>
         </is>
       </c>
     </row>
@@ -9959,22 +9959,22 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2734</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>1383190</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>1383190</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>1383190</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -9994,22 +9994,22 @@
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>4502</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>1418328</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>1418328</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>1418328</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -10029,22 +10029,22 @@
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>5373</t>
+          <t>8600</t>
         </is>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>2801518</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>2801518</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>2801518</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
